--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/94/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/94/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1981981981981982</v>
+        <v>0.2868286828682868</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>816.8168168168169</v>
+        <v>990.8090809080909</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005305305305305306</v>
+        <v>0.005630563056305631</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7667667667667668</v>
+        <v>0.6946694669466947</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1003.003003003003</v>
+        <v>321.3721372137214</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.7147147147148</v>
+        <v>370.02700270027</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.07307307307308</v>
+        <v>957.7380738073807</v>
       </c>
     </row>
   </sheetData>
